--- a/src.Tests/ClinicalTest/CalculateClinicalTestResult/expectedResults.xlsx
+++ b/src.Tests/ClinicalTest/CalculateClinicalTestResult/expectedResults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thorbjornmoller/OneDrive - Aalborg Universitet/Software/3. semester/Projekt/P3-Clinical-Immunology/src.Tests/ClinicalTest/CalculateClinicalTestResult/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F8B0C7-BDA0-7245-9A25-CA69415465A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6B4ED11-B7CA-ED42-87AF-2E5D16C950DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11140" yWindow="1100" windowWidth="28040" windowHeight="16900" activeTab="2" xr2:uid="{8C284FFB-0E6F-AB46-83FF-615EDFE03933}"/>
   </bookViews>
@@ -8426,7 +8426,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D02D1D66-834E-6044-BAE9-27045A4523A8}">
   <dimension ref="A1:X54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
